--- a/Code/Results/Cases/Case_4_153/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_153/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.71057703129683</v>
+        <v>23.47930048478094</v>
       </c>
       <c r="C2">
-        <v>9.107994386848112</v>
+        <v>6.270156305745203</v>
       </c>
       <c r="D2">
-        <v>6.852365359512048</v>
+        <v>6.103539760974283</v>
       </c>
       <c r="E2">
-        <v>5.118601834717237</v>
+        <v>8.903859682885081</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.166417377744439</v>
+        <v>3.811569418557166</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.0309711619483</v>
+        <v>19.78711842111927</v>
       </c>
       <c r="L2">
-        <v>6.262145905116951</v>
+        <v>10.26232679005846</v>
       </c>
       <c r="M2">
-        <v>13.26964785961614</v>
+        <v>19.20166858335622</v>
       </c>
       <c r="N2">
-        <v>23.36711511901249</v>
+        <v>29.08391994935222</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.70170664263695</v>
+        <v>23.33036574243604</v>
       </c>
       <c r="C3">
-        <v>8.441478411322052</v>
+        <v>6.061030079424166</v>
       </c>
       <c r="D3">
-        <v>6.384013153136616</v>
+        <v>6.004260750733199</v>
       </c>
       <c r="E3">
-        <v>5.132107915450157</v>
+        <v>8.91558337082296</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.178448840564447</v>
+        <v>3.815654318945504</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.22910027647437</v>
+        <v>19.67727322407919</v>
       </c>
       <c r="L3">
-        <v>6.201758288616141</v>
+        <v>10.2765757029304</v>
       </c>
       <c r="M3">
-        <v>12.91710843011695</v>
+        <v>19.19455112777568</v>
       </c>
       <c r="N3">
-        <v>23.05883855469595</v>
+        <v>28.9987185483454</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.07539358398221</v>
+        <v>23.24464556243133</v>
       </c>
       <c r="C4">
-        <v>8.012973287304135</v>
+        <v>5.931115120121863</v>
       </c>
       <c r="D4">
-        <v>6.119939922337235</v>
+        <v>5.944429068301987</v>
       </c>
       <c r="E4">
-        <v>5.141492682164133</v>
+        <v>8.923304402984497</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.185991378915016</v>
+        <v>3.818290822549458</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.73277245083298</v>
+        <v>19.61463792043736</v>
       </c>
       <c r="L4">
-        <v>6.167993998762839</v>
+        <v>10.28678776082565</v>
       </c>
       <c r="M4">
-        <v>12.70623051443178</v>
+        <v>19.1939014786496</v>
       </c>
       <c r="N4">
-        <v>22.87328085970315</v>
+        <v>28.94726111149516</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.8186943491987</v>
+        <v>23.21118167481673</v>
       </c>
       <c r="C5">
-        <v>7.833407009145486</v>
+        <v>5.877887677120825</v>
       </c>
       <c r="D5">
-        <v>6.010520264437956</v>
+        <v>5.920363248712982</v>
       </c>
       <c r="E5">
-        <v>5.145585135422976</v>
+        <v>8.926582510885419</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.189107238349566</v>
+        <v>3.81939762398707</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.52971417996584</v>
+        <v>19.59034183236233</v>
       </c>
       <c r="L5">
-        <v>6.155047698329645</v>
+        <v>10.29131715861949</v>
       </c>
       <c r="M5">
-        <v>12.62173775563387</v>
+        <v>19.19457301060381</v>
       </c>
       <c r="N5">
-        <v>22.7985716319345</v>
+        <v>28.92651148922774</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.77598930148824</v>
+        <v>23.20571443571866</v>
       </c>
       <c r="C6">
-        <v>7.803288508526574</v>
+        <v>5.869034893666631</v>
       </c>
       <c r="D6">
-        <v>5.992244424040286</v>
+        <v>5.916387179585785</v>
       </c>
       <c r="E6">
-        <v>5.146280699590029</v>
+        <v>8.927134802984869</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.189627262549035</v>
+        <v>3.819583368452435</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.49595481372022</v>
+        <v>19.58638218203081</v>
       </c>
       <c r="L6">
-        <v>6.152946481252731</v>
+        <v>10.2920914804902</v>
       </c>
       <c r="M6">
-        <v>12.60779605395653</v>
+        <v>19.19474107813798</v>
       </c>
       <c r="N6">
-        <v>22.78622019957908</v>
+        <v>28.92307942092209</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.07193722868756</v>
+        <v>23.24418827893558</v>
       </c>
       <c r="C7">
-        <v>8.010571754847703</v>
+        <v>5.93039830558448</v>
       </c>
       <c r="D7">
-        <v>6.11847146583048</v>
+        <v>5.944103185314913</v>
       </c>
       <c r="E7">
-        <v>5.141546797007648</v>
+        <v>8.923348078929358</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.186033225526818</v>
+        <v>3.818305617886984</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.73003688275625</v>
+        <v>19.61430525825638</v>
       </c>
       <c r="L7">
-        <v>6.167816135699861</v>
+        <v>10.286847356319</v>
       </c>
       <c r="M7">
-        <v>12.70508512508939</v>
+        <v>19.1939067436922</v>
       </c>
       <c r="N7">
-        <v>22.87226966914826</v>
+        <v>28.94698037988569</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.36427700678096</v>
+        <v>23.42677674692731</v>
       </c>
       <c r="C8">
-        <v>8.88211249774773</v>
+        <v>6.198417331548114</v>
       </c>
       <c r="D8">
-        <v>6.685598283757667</v>
+        <v>6.069094545139802</v>
       </c>
       <c r="E8">
-        <v>5.123027937121195</v>
+        <v>8.907793717721338</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.170535629099109</v>
+        <v>3.81295132873857</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.75541681810779</v>
+        <v>19.74825731022045</v>
       </c>
       <c r="L8">
-        <v>6.24062403520838</v>
+        <v>10.26693613069139</v>
       </c>
       <c r="M8">
-        <v>13.14695464549903</v>
+        <v>19.1984428596143</v>
       </c>
       <c r="N8">
-        <v>23.26002897854711</v>
+        <v>29.05436736383136</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.83610885459627</v>
+        <v>23.82892900692275</v>
       </c>
       <c r="C9">
-        <v>10.4435113628266</v>
+        <v>6.70824116032681</v>
       </c>
       <c r="D9">
-        <v>7.835491335955136</v>
+        <v>6.321673482755466</v>
       </c>
       <c r="E9">
-        <v>5.09571480374668</v>
+        <v>8.881425187083217</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.141216255193605</v>
+        <v>3.803464203120158</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.72833522429909</v>
+        <v>20.04818919776145</v>
       </c>
       <c r="L9">
-        <v>6.410651581498199</v>
+        <v>10.23950034296067</v>
       </c>
       <c r="M9">
-        <v>14.05649145925479</v>
+        <v>19.23681007067914</v>
       </c>
       <c r="N9">
-        <v>24.05160512447976</v>
+        <v>29.27155722605797</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.60810035542388</v>
+        <v>24.14932651110167</v>
       </c>
       <c r="C10">
-        <v>11.50861931372663</v>
+        <v>7.068651919870724</v>
       </c>
       <c r="D10">
-        <v>8.615797211336748</v>
+        <v>6.509840291946685</v>
       </c>
       <c r="E10">
-        <v>5.081688777012841</v>
+        <v>8.864553976506517</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.120077911618359</v>
+        <v>3.79710314476493</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.15004549669159</v>
+        <v>20.28991607105822</v>
       </c>
       <c r="L10">
-        <v>6.553617126337164</v>
+        <v>10.22642082134081</v>
       </c>
       <c r="M10">
-        <v>14.75017784098997</v>
+        <v>19.28287525371012</v>
       </c>
       <c r="N10">
-        <v>24.65500367507886</v>
+        <v>29.43489156970688</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.40474838832344</v>
+        <v>24.30004302761672</v>
       </c>
       <c r="C11">
-        <v>11.97739132583544</v>
+        <v>7.22872128484396</v>
       </c>
       <c r="D11">
-        <v>8.958079240953886</v>
+        <v>6.595599579088408</v>
       </c>
       <c r="E11">
-        <v>5.076771629978627</v>
+        <v>8.857418262385943</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.110484001251476</v>
+        <v>3.79433985044447</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.79087952072647</v>
+        <v>20.40420415223384</v>
       </c>
       <c r="L11">
-        <v>6.622932864697745</v>
+        <v>10.22200654489918</v>
       </c>
       <c r="M11">
-        <v>15.07144980619463</v>
+        <v>19.30768414060736</v>
       </c>
       <c r="N11">
-        <v>24.93506181837771</v>
+        <v>29.50995446039576</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.70515804960819</v>
+        <v>24.35778882418916</v>
       </c>
       <c r="C12">
-        <v>12.15283399687323</v>
+        <v>7.288718381245256</v>
       </c>
       <c r="D12">
-        <v>9.085992687840537</v>
+        <v>6.628064781246357</v>
       </c>
       <c r="E12">
-        <v>5.075135558153455</v>
+        <v>8.854793380301277</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.106847910983261</v>
+        <v>3.793312076743179</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.03277848244528</v>
+        <v>20.4480750519924</v>
       </c>
       <c r="L12">
-        <v>6.649830745827609</v>
+        <v>10.2205556197104</v>
       </c>
       <c r="M12">
-        <v>15.19397015593829</v>
+        <v>19.31762938399219</v>
       </c>
       <c r="N12">
-        <v>25.0419984239615</v>
+        <v>29.53848265708938</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.64051338237488</v>
+        <v>24.34532298660494</v>
       </c>
       <c r="C13">
-        <v>12.11513802261269</v>
+        <v>7.275825278987223</v>
       </c>
       <c r="D13">
-        <v>9.058517788941534</v>
+        <v>6.621073778667632</v>
       </c>
       <c r="E13">
-        <v>5.07547758981333</v>
+        <v>8.855355263683846</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.10763125437717</v>
+        <v>3.793532599762405</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.98071360081001</v>
+        <v>20.43860079953537</v>
       </c>
       <c r="L13">
-        <v>6.64400831958753</v>
+        <v>10.22085829136969</v>
       </c>
       <c r="M13">
-        <v>15.16754395315691</v>
+        <v>19.31546306812873</v>
       </c>
       <c r="N13">
-        <v>25.01892683922097</v>
+        <v>29.53233409291134</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.42948780082077</v>
+        <v>24.30478056828589</v>
       </c>
       <c r="C14">
-        <v>11.99186540434925</v>
+        <v>7.233669977677263</v>
       </c>
       <c r="D14">
-        <v>8.968636097847654</v>
+        <v>6.598270896669469</v>
       </c>
       <c r="E14">
-        <v>5.076632402410334</v>
+        <v>8.857200764876563</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.110184958710091</v>
+        <v>3.794254922296801</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.81079547889152</v>
+        <v>20.40780173628148</v>
       </c>
       <c r="L14">
-        <v>6.625132538552513</v>
+        <v>10.22188275505269</v>
       </c>
       <c r="M14">
-        <v>15.08151203365222</v>
+        <v>19.30849132754583</v>
       </c>
       <c r="N14">
-        <v>24.94384128330834</v>
+        <v>29.51229945269531</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.3000679981011</v>
+        <v>24.28003352447797</v>
       </c>
       <c r="C15">
-        <v>11.91609384369094</v>
+        <v>7.207766549794684</v>
       </c>
       <c r="D15">
-        <v>8.913363299976041</v>
+        <v>6.584301208715261</v>
       </c>
       <c r="E15">
-        <v>5.077369690263906</v>
+        <v>8.858341241216426</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.111748574051776</v>
+        <v>3.79469978769967</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.70661868644577</v>
+        <v>20.38901268473925</v>
       </c>
       <c r="L15">
-        <v>6.613656263055945</v>
+        <v>10.22253900013481</v>
       </c>
       <c r="M15">
-        <v>15.02892886317538</v>
+        <v>19.30429253480645</v>
       </c>
       <c r="N15">
-        <v>24.89796721291627</v>
+        <v>29.5000409566431</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.55585395258393</v>
+        <v>24.13957325412848</v>
       </c>
       <c r="C16">
-        <v>11.47768300397883</v>
+        <v>7.058107647991796</v>
       </c>
       <c r="D16">
-        <v>8.593183190284455</v>
+        <v>6.504236104985186</v>
       </c>
       <c r="E16">
-        <v>5.082040836598973</v>
+        <v>8.865031137504412</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.120704824566033</v>
+        <v>3.797286345661573</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.10805194975102</v>
+        <v>20.28253161840624</v>
       </c>
       <c r="L16">
-        <v>6.54917610158058</v>
+        <v>10.22674019357983</v>
       </c>
       <c r="M16">
-        <v>14.72929974025768</v>
+        <v>19.28133119231799</v>
       </c>
       <c r="N16">
-        <v>24.63682005480005</v>
+        <v>29.43000084710001</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.09692905644049</v>
+        <v>24.05464833623587</v>
       </c>
       <c r="C17">
-        <v>11.20482804687969</v>
+        <v>6.96525783647204</v>
       </c>
       <c r="D17">
-        <v>8.393597166417017</v>
+        <v>6.455136112834321</v>
       </c>
       <c r="E17">
-        <v>5.085291456946921</v>
+        <v>8.869273057202456</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.126200652694745</v>
+        <v>3.798906421752133</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.7393744669792</v>
+        <v>20.21829614680059</v>
       </c>
       <c r="L17">
-        <v>6.510738519197166</v>
+        <v>10.22971071175424</v>
       </c>
       <c r="M17">
-        <v>14.54697033134725</v>
+        <v>19.2682298310124</v>
       </c>
       <c r="N17">
-        <v>24.47809544242151</v>
+        <v>29.38722431271903</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.83206910141269</v>
+        <v>24.00627177099962</v>
       </c>
       <c r="C18">
-        <v>11.0463935453488</v>
+        <v>6.911490672647642</v>
       </c>
       <c r="D18">
-        <v>8.277598629406041</v>
+        <v>6.426912194981321</v>
       </c>
       <c r="E18">
-        <v>5.087297793663207</v>
+        <v>8.871763653789507</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.129364202411726</v>
+        <v>3.79985052627328</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.52675643069744</v>
+        <v>20.18175856743361</v>
       </c>
       <c r="L18">
-        <v>6.48903079279495</v>
+        <v>10.23156383209623</v>
       </c>
       <c r="M18">
-        <v>14.4426329103179</v>
+        <v>19.2610572347641</v>
       </c>
       <c r="N18">
-        <v>24.38731947994238</v>
+        <v>29.36269240657137</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.74223606829254</v>
+        <v>23.98997425982137</v>
       </c>
       <c r="C19">
-        <v>10.99248798496367</v>
+        <v>6.893225707260925</v>
       </c>
       <c r="D19">
-        <v>8.238113592500632</v>
+        <v>6.417360026912472</v>
       </c>
       <c r="E19">
-        <v>5.088000147100935</v>
+        <v>8.872615652524967</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.130435931181346</v>
+        <v>3.800172296628933</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.45466923368226</v>
+        <v>20.16945869006825</v>
       </c>
       <c r="L19">
-        <v>6.481748767486121</v>
+        <v>10.23221609862784</v>
       </c>
       <c r="M19">
-        <v>14.40739688981324</v>
+        <v>19.2586911536823</v>
       </c>
       <c r="N19">
-        <v>24.35667102921366</v>
+        <v>29.35439887332591</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.14587493534005</v>
+        <v>24.06364039109334</v>
       </c>
       <c r="C20">
-        <v>11.2340273829538</v>
+        <v>6.975179815908662</v>
       </c>
       <c r="D20">
-        <v>8.414966995466266</v>
+        <v>6.460361364990454</v>
       </c>
       <c r="E20">
-        <v>5.084931174538684</v>
+        <v>8.868816246405185</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.125615396767042</v>
+        <v>3.798732691887275</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.77867885724646</v>
+        <v>20.22509200602188</v>
       </c>
       <c r="L20">
-        <v>6.514788578908115</v>
+        <v>10.22937953494384</v>
       </c>
       <c r="M20">
-        <v>14.5663241690359</v>
+        <v>19.26958695196069</v>
       </c>
       <c r="N20">
-        <v>24.49493776067921</v>
+        <v>29.39177053606426</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.49150431540208</v>
+        <v>24.31667093796241</v>
       </c>
       <c r="C21">
-        <v>12.02812809467543</v>
+        <v>7.246069215293828</v>
       </c>
       <c r="D21">
-        <v>8.995081650075196</v>
+        <v>6.604969185288823</v>
       </c>
       <c r="E21">
-        <v>5.076286936547225</v>
+        <v>8.856656601748298</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.109435011795934</v>
+        <v>3.794042254136428</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.86072454619555</v>
+        <v>20.41683232858318</v>
       </c>
       <c r="L21">
-        <v>6.630658887868991</v>
+        <v>10.22157585797832</v>
       </c>
       <c r="M21">
-        <v>15.10675785404421</v>
+        <v>19.31052418236493</v>
       </c>
       <c r="N21">
-        <v>24.9658709645698</v>
+        <v>29.51818135146034</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.36368185555915</v>
+        <v>24.48594213360071</v>
       </c>
       <c r="C22">
-        <v>12.53515659979049</v>
+        <v>7.419487775573384</v>
       </c>
       <c r="D22">
-        <v>9.364371989709639</v>
+        <v>6.699406059700008</v>
       </c>
       <c r="E22">
-        <v>5.071963703575012</v>
+        <v>8.849159771013889</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.098838642748443</v>
+        <v>3.791085290994246</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.56349076342643</v>
+        <v>20.54558471645431</v>
       </c>
       <c r="L22">
-        <v>6.710192560435649</v>
+        <v>10.21776179982134</v>
       </c>
       <c r="M22">
-        <v>15.46502364537064</v>
+        <v>19.34048670660155</v>
       </c>
       <c r="N22">
-        <v>25.27886205695809</v>
+        <v>29.60139855322597</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.89879921119183</v>
+        <v>24.39525594852129</v>
       </c>
       <c r="C23">
-        <v>12.26556934197666</v>
+        <v>7.327280451512906</v>
       </c>
       <c r="D23">
-        <v>9.168131248907754</v>
+        <v>6.64902062509962</v>
       </c>
       <c r="E23">
-        <v>5.074143866800594</v>
+        <v>8.853119862799726</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.104498401817049</v>
+        <v>3.792653589842034</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.18877302927645</v>
+        <v>20.47656250377861</v>
       </c>
       <c r="L23">
-        <v>6.667383030050276</v>
+        <v>10.21967982321828</v>
       </c>
       <c r="M23">
-        <v>15.27332678577996</v>
+        <v>19.3242029215764</v>
       </c>
       <c r="N23">
-        <v>25.11130364379709</v>
+        <v>29.55693104788145</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.12374968021998</v>
+        <v>24.05957368485607</v>
       </c>
       <c r="C24">
-        <v>11.22083125685265</v>
+        <v>6.970695288515977</v>
       </c>
       <c r="D24">
-        <v>8.405309610320518</v>
+        <v>6.45799901250062</v>
       </c>
       <c r="E24">
-        <v>5.085093631025626</v>
+        <v>8.869022609013257</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.125879978286615</v>
+        <v>3.798811195588427</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.76091140469098</v>
+        <v>20.2220183740775</v>
       </c>
       <c r="L24">
-        <v>6.512956332931852</v>
+        <v>10.22952880729802</v>
       </c>
       <c r="M24">
-        <v>14.55757278734659</v>
+        <v>19.26897227740075</v>
       </c>
       <c r="N24">
-        <v>24.48732186917743</v>
+        <v>29.38971499837118</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.17495806948357</v>
+        <v>23.71560802608567</v>
       </c>
       <c r="C25">
-        <v>10.03615064393003</v>
+        <v>6.572505401402981</v>
       </c>
       <c r="D25">
-        <v>7.536152618267404</v>
+        <v>6.252747682948763</v>
       </c>
       <c r="E25">
-        <v>5.102088060602737</v>
+        <v>8.888117941747216</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.14905733367058</v>
+        <v>3.805923161909333</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.19933984200324</v>
+        <v>19.96319357976238</v>
       </c>
       <c r="L25">
-        <v>6.361596068905646</v>
+        <v>10.24567935273459</v>
       </c>
       <c r="M25">
-        <v>13.8059619468525</v>
+        <v>19.22328288217824</v>
       </c>
       <c r="N25">
-        <v>23.8338650990242</v>
+        <v>29.21212062681202</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_153/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_153/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.47930048478094</v>
+        <v>20.71057703129684</v>
       </c>
       <c r="C2">
-        <v>6.270156305745203</v>
+        <v>9.107994386848025</v>
       </c>
       <c r="D2">
-        <v>6.103539760974283</v>
+        <v>6.852365359512175</v>
       </c>
       <c r="E2">
-        <v>8.903859682885081</v>
+        <v>5.118601834717178</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.811569418557166</v>
+        <v>2.166417377744574</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.78711842111927</v>
+        <v>17.0309711619483</v>
       </c>
       <c r="L2">
-        <v>10.26232679005846</v>
+        <v>6.26214590511702</v>
       </c>
       <c r="M2">
-        <v>19.20166858335622</v>
+        <v>13.26964785961613</v>
       </c>
       <c r="N2">
-        <v>29.08391994935222</v>
+        <v>23.36711511901252</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.33036574243604</v>
+        <v>19.70170664263686</v>
       </c>
       <c r="C3">
-        <v>6.061030079424166</v>
+        <v>8.441478411322114</v>
       </c>
       <c r="D3">
-        <v>6.004260750733199</v>
+        <v>6.38401315313658</v>
       </c>
       <c r="E3">
-        <v>8.91558337082296</v>
+        <v>5.132107915450231</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.815654318945504</v>
+        <v>2.178448840564319</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.67727322407919</v>
+        <v>16.22910027647429</v>
       </c>
       <c r="L3">
-        <v>10.2765757029304</v>
+        <v>6.201758288616112</v>
       </c>
       <c r="M3">
-        <v>19.19455112777568</v>
+        <v>12.9171084301169</v>
       </c>
       <c r="N3">
-        <v>28.9987185483454</v>
+        <v>23.05883855469581</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.24464556243133</v>
+        <v>19.07539358398225</v>
       </c>
       <c r="C4">
-        <v>5.931115120121863</v>
+        <v>8.01297328730398</v>
       </c>
       <c r="D4">
-        <v>5.944429068301987</v>
+        <v>6.119939922337217</v>
       </c>
       <c r="E4">
-        <v>8.923304402984497</v>
+        <v>5.141492682164139</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.818290822549458</v>
+        <v>2.185991378915158</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.61463792043736</v>
+        <v>15.73277245083302</v>
       </c>
       <c r="L4">
-        <v>10.28678776082565</v>
+        <v>6.167993998762854</v>
       </c>
       <c r="M4">
-        <v>19.1939014786496</v>
+        <v>12.70623051443182</v>
       </c>
       <c r="N4">
-        <v>28.94726111149516</v>
+        <v>22.87328085970318</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.21118167481673</v>
+        <v>18.81869434919877</v>
       </c>
       <c r="C5">
-        <v>5.877887677120825</v>
+        <v>7.833407009145546</v>
       </c>
       <c r="D5">
-        <v>5.920363248712982</v>
+        <v>6.010520264437984</v>
       </c>
       <c r="E5">
-        <v>8.926582510885419</v>
+        <v>5.145585135423169</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.81939762398707</v>
+        <v>2.189107238349568</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.59034183236233</v>
+        <v>15.52971417996584</v>
       </c>
       <c r="L5">
-        <v>10.29131715861949</v>
+        <v>6.155047698329719</v>
       </c>
       <c r="M5">
-        <v>19.19457301060381</v>
+        <v>12.62173775563393</v>
       </c>
       <c r="N5">
-        <v>28.92651148922774</v>
+        <v>22.79857163193456</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.20571443571866</v>
+        <v>18.77598930148827</v>
       </c>
       <c r="C6">
-        <v>5.869034893666631</v>
+        <v>7.803288508526621</v>
       </c>
       <c r="D6">
-        <v>5.916387179585785</v>
+        <v>5.992244424040306</v>
       </c>
       <c r="E6">
-        <v>8.927134802984869</v>
+        <v>5.146280699590024</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.819583368452435</v>
+        <v>2.189627262549035</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.58638218203081</v>
+        <v>15.49595481372021</v>
       </c>
       <c r="L6">
-        <v>10.2920914804902</v>
+        <v>6.152946481252676</v>
       </c>
       <c r="M6">
-        <v>19.19474107813798</v>
+        <v>12.60779605395651</v>
       </c>
       <c r="N6">
-        <v>28.92307942092209</v>
+        <v>22.78622019957901</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.24418827893558</v>
+        <v>19.07193722868761</v>
       </c>
       <c r="C7">
-        <v>5.93039830558448</v>
+        <v>8.010571754847501</v>
       </c>
       <c r="D7">
-        <v>5.944103185314913</v>
+        <v>6.118471465830486</v>
       </c>
       <c r="E7">
-        <v>8.923348078929358</v>
+        <v>5.141546797007587</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.818305617886984</v>
+        <v>2.18603322552669</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.61430525825638</v>
+        <v>15.73003688275632</v>
       </c>
       <c r="L7">
-        <v>10.286847356319</v>
+        <v>6.167816135699958</v>
       </c>
       <c r="M7">
-        <v>19.1939067436922</v>
+        <v>12.70508512508945</v>
       </c>
       <c r="N7">
-        <v>28.94698037988569</v>
+        <v>22.87226966914832</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.42677674692731</v>
+        <v>20.36427700678091</v>
       </c>
       <c r="C8">
-        <v>6.198417331548114</v>
+        <v>8.882112497747762</v>
       </c>
       <c r="D8">
-        <v>6.069094545139802</v>
+        <v>6.685598283757624</v>
       </c>
       <c r="E8">
-        <v>8.907793717721338</v>
+        <v>5.123027937121197</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.81295132873857</v>
+        <v>2.170535629099112</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.74825731022045</v>
+        <v>16.75541681810774</v>
       </c>
       <c r="L8">
-        <v>10.26693613069139</v>
+        <v>6.240624035208387</v>
       </c>
       <c r="M8">
-        <v>19.1984428596143</v>
+        <v>13.14695464549897</v>
       </c>
       <c r="N8">
-        <v>29.05436736383136</v>
+        <v>23.26002897854708</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.82892900692275</v>
+        <v>22.83610885459627</v>
       </c>
       <c r="C9">
-        <v>6.70824116032681</v>
+        <v>10.44351136282654</v>
       </c>
       <c r="D9">
-        <v>6.321673482755466</v>
+        <v>7.835491335955022</v>
       </c>
       <c r="E9">
-        <v>8.881425187083217</v>
+        <v>5.095714803746803</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.803464203120158</v>
+        <v>2.141216255193608</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.04818919776145</v>
+        <v>18.72833522429908</v>
       </c>
       <c r="L9">
-        <v>10.23950034296067</v>
+        <v>6.410651581498275</v>
       </c>
       <c r="M9">
-        <v>19.23681007067914</v>
+        <v>14.05649145925482</v>
       </c>
       <c r="N9">
-        <v>29.27155722605797</v>
+        <v>24.05160512447981</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.14932651110167</v>
+        <v>24.60810035542389</v>
       </c>
       <c r="C10">
-        <v>7.068651919870724</v>
+        <v>11.50861931372654</v>
       </c>
       <c r="D10">
-        <v>6.509840291946685</v>
+        <v>8.61579721133678</v>
       </c>
       <c r="E10">
-        <v>8.864553976506517</v>
+        <v>5.081688777012971</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.79710314476493</v>
+        <v>2.120077911618494</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.28991607105822</v>
+        <v>20.15004549669159</v>
       </c>
       <c r="L10">
-        <v>10.22642082134081</v>
+        <v>6.553617126337239</v>
       </c>
       <c r="M10">
-        <v>19.28287525371012</v>
+        <v>14.75017784099002</v>
       </c>
       <c r="N10">
-        <v>29.43489156970688</v>
+        <v>24.65500367507891</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.30004302761672</v>
+        <v>25.40474838832341</v>
       </c>
       <c r="C11">
-        <v>7.22872128484396</v>
+        <v>11.9773913258354</v>
       </c>
       <c r="D11">
-        <v>6.595599579088408</v>
+        <v>8.95807924095395</v>
       </c>
       <c r="E11">
-        <v>8.857418262385943</v>
+        <v>5.076771629978507</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.79433985044447</v>
+        <v>2.110484001251082</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.40420415223384</v>
+        <v>20.79087952072646</v>
       </c>
       <c r="L11">
-        <v>10.22200654489918</v>
+        <v>6.62293286469771</v>
       </c>
       <c r="M11">
-        <v>19.30768414060736</v>
+        <v>15.07144980619459</v>
       </c>
       <c r="N11">
-        <v>29.50995446039576</v>
+        <v>24.93506181837769</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.35778882418916</v>
+        <v>25.70515804960814</v>
       </c>
       <c r="C12">
-        <v>7.288718381245256</v>
+        <v>12.15283399687304</v>
       </c>
       <c r="D12">
-        <v>6.628064781246357</v>
+        <v>9.085992687840584</v>
       </c>
       <c r="E12">
-        <v>8.854793380301277</v>
+        <v>5.075135558153346</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.793312076743179</v>
+        <v>2.106847910983008</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.4480750519924</v>
+        <v>21.03277848244527</v>
       </c>
       <c r="L12">
-        <v>10.2205556197104</v>
+        <v>6.649830745827579</v>
       </c>
       <c r="M12">
-        <v>19.31762938399219</v>
+        <v>15.1939701559383</v>
       </c>
       <c r="N12">
-        <v>29.53848265708938</v>
+        <v>25.04199842396147</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.34532298660494</v>
+        <v>25.64051338237485</v>
       </c>
       <c r="C13">
-        <v>7.275825278987223</v>
+        <v>12.11513802261262</v>
       </c>
       <c r="D13">
-        <v>6.621073778667632</v>
+        <v>9.058517788941522</v>
       </c>
       <c r="E13">
-        <v>8.855355263683846</v>
+        <v>5.075477589813199</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.793532599762405</v>
+        <v>2.107631254376508</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.43860079953537</v>
+        <v>20.98071360080998</v>
       </c>
       <c r="L13">
-        <v>10.22085829136969</v>
+        <v>6.644008319587494</v>
       </c>
       <c r="M13">
-        <v>19.31546306812873</v>
+        <v>15.16754395315689</v>
       </c>
       <c r="N13">
-        <v>29.53233409291134</v>
+        <v>25.018926839221</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.30478056828589</v>
+        <v>25.42948780082076</v>
       </c>
       <c r="C14">
-        <v>7.233669977677263</v>
+        <v>11.99186540434911</v>
       </c>
       <c r="D14">
-        <v>6.598270896669469</v>
+        <v>8.968636097847718</v>
       </c>
       <c r="E14">
-        <v>8.857200764876563</v>
+        <v>5.076632402410267</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.794254922296801</v>
+        <v>2.110184958709835</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.40780173628148</v>
+        <v>20.81079547889152</v>
       </c>
       <c r="L14">
-        <v>10.22188275505269</v>
+        <v>6.625132538552581</v>
       </c>
       <c r="M14">
-        <v>19.30849132754583</v>
+        <v>15.08151203365224</v>
       </c>
       <c r="N14">
-        <v>29.51229945269531</v>
+        <v>24.94384128330836</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.28003352447797</v>
+        <v>25.30006799810114</v>
       </c>
       <c r="C15">
-        <v>7.207766549794684</v>
+        <v>11.91609384369081</v>
       </c>
       <c r="D15">
-        <v>6.584301208715261</v>
+        <v>8.913363299976208</v>
       </c>
       <c r="E15">
-        <v>8.858341241216426</v>
+        <v>5.0773696902639</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.79469978769967</v>
+        <v>2.111748574051381</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.38901268473925</v>
+        <v>20.70661868644581</v>
       </c>
       <c r="L15">
-        <v>10.22253900013481</v>
+        <v>6.613656263056003</v>
       </c>
       <c r="M15">
-        <v>19.30429253480645</v>
+        <v>15.02892886317539</v>
       </c>
       <c r="N15">
-        <v>29.5000409566431</v>
+        <v>24.89796721291629</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.13957325412848</v>
+        <v>24.55585395258393</v>
       </c>
       <c r="C16">
-        <v>7.058107647991796</v>
+        <v>11.47768300397884</v>
       </c>
       <c r="D16">
-        <v>6.504236104985186</v>
+        <v>8.593183190284455</v>
       </c>
       <c r="E16">
-        <v>8.865031137504412</v>
+        <v>5.082040836598965</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.797286345661573</v>
+        <v>2.120704824565907</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.28253161840624</v>
+        <v>20.10805194975105</v>
       </c>
       <c r="L16">
-        <v>10.22674019357983</v>
+        <v>6.549176101580555</v>
       </c>
       <c r="M16">
-        <v>19.28133119231799</v>
+        <v>14.72929974025769</v>
       </c>
       <c r="N16">
-        <v>29.43000084710001</v>
+        <v>24.6368200548</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.05464833623587</v>
+        <v>24.09692905644052</v>
       </c>
       <c r="C17">
-        <v>6.96525783647204</v>
+        <v>11.20482804687967</v>
       </c>
       <c r="D17">
-        <v>6.455136112834321</v>
+        <v>8.393597166416855</v>
       </c>
       <c r="E17">
-        <v>8.869273057202456</v>
+        <v>5.085291456946667</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.798906421752133</v>
+        <v>2.126200652694346</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.21829614680059</v>
+        <v>19.73937446697921</v>
       </c>
       <c r="L17">
-        <v>10.22971071175424</v>
+        <v>6.510738519197025</v>
       </c>
       <c r="M17">
-        <v>19.2682298310124</v>
+        <v>14.54697033134725</v>
       </c>
       <c r="N17">
-        <v>29.38722431271903</v>
+        <v>24.47809544242155</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.00627177099962</v>
+        <v>23.8320691014127</v>
       </c>
       <c r="C18">
-        <v>6.911490672647642</v>
+        <v>11.04639354534907</v>
       </c>
       <c r="D18">
-        <v>6.426912194981321</v>
+        <v>8.277598629405922</v>
       </c>
       <c r="E18">
-        <v>8.871763653789507</v>
+        <v>5.087297793663324</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.79985052627328</v>
+        <v>2.129364202411846</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.18175856743361</v>
+        <v>19.52675643069745</v>
       </c>
       <c r="L18">
-        <v>10.23156383209623</v>
+        <v>6.489030792794884</v>
       </c>
       <c r="M18">
-        <v>19.2610572347641</v>
+        <v>14.44263291031795</v>
       </c>
       <c r="N18">
-        <v>29.36269240657137</v>
+        <v>24.38731947994244</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.98997425982137</v>
+        <v>23.74223606829258</v>
       </c>
       <c r="C19">
-        <v>6.893225707260925</v>
+        <v>10.99248798496377</v>
       </c>
       <c r="D19">
-        <v>6.417360026912472</v>
+        <v>8.238113592500692</v>
       </c>
       <c r="E19">
-        <v>8.872615652524967</v>
+        <v>5.08800014710112</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.800172296628933</v>
+        <v>2.130435931181478</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.16945869006825</v>
+        <v>19.45466923368228</v>
       </c>
       <c r="L19">
-        <v>10.23221609862784</v>
+        <v>6.481748767486202</v>
       </c>
       <c r="M19">
-        <v>19.2586911536823</v>
+        <v>14.40739688981326</v>
       </c>
       <c r="N19">
-        <v>29.35439887332591</v>
+        <v>24.35667102921368</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.06364039109334</v>
+        <v>24.14587493534006</v>
       </c>
       <c r="C20">
-        <v>6.975179815908662</v>
+        <v>11.23402738295359</v>
       </c>
       <c r="D20">
-        <v>6.460361364990454</v>
+        <v>8.414966995466298</v>
       </c>
       <c r="E20">
-        <v>8.868816246405185</v>
+        <v>5.084931174538434</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.798732691887275</v>
+        <v>2.12561539676718</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.22509200602188</v>
+        <v>19.77867885724648</v>
       </c>
       <c r="L20">
-        <v>10.22937953494384</v>
+        <v>6.514788578908075</v>
       </c>
       <c r="M20">
-        <v>19.26958695196069</v>
+        <v>14.56632416903587</v>
       </c>
       <c r="N20">
-        <v>29.39177053606426</v>
+        <v>24.49493776067923</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.31667093796241</v>
+        <v>25.49150431540208</v>
       </c>
       <c r="C21">
-        <v>7.246069215293828</v>
+        <v>12.02812809467549</v>
       </c>
       <c r="D21">
-        <v>6.604969185288823</v>
+        <v>8.995081650075241</v>
       </c>
       <c r="E21">
-        <v>8.856656601748298</v>
+        <v>5.076286936547408</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.794042254136428</v>
+        <v>2.109435011795947</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.41683232858318</v>
+        <v>20.86072454619555</v>
       </c>
       <c r="L21">
-        <v>10.22157585797832</v>
+        <v>6.63065888786906</v>
       </c>
       <c r="M21">
-        <v>19.31052418236493</v>
+        <v>15.10675785404421</v>
       </c>
       <c r="N21">
-        <v>29.51818135146034</v>
+        <v>24.96587096456973</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.48594213360071</v>
+        <v>26.36368185555913</v>
       </c>
       <c r="C22">
-        <v>7.419487775573384</v>
+        <v>12.53515659979019</v>
       </c>
       <c r="D22">
-        <v>6.699406059700008</v>
+        <v>9.364371989709799</v>
       </c>
       <c r="E22">
-        <v>8.849159771013889</v>
+        <v>5.071963703574582</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.791085290994246</v>
+        <v>2.098838642747921</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.54558471645431</v>
+        <v>21.5634907634264</v>
       </c>
       <c r="L22">
-        <v>10.21776179982134</v>
+        <v>6.710192560435581</v>
       </c>
       <c r="M22">
-        <v>19.34048670660155</v>
+        <v>15.46502364537059</v>
       </c>
       <c r="N22">
-        <v>29.60139855322597</v>
+        <v>25.27886205695806</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.39525594852129</v>
+        <v>25.8987992111918</v>
       </c>
       <c r="C23">
-        <v>7.327280451512906</v>
+        <v>12.26556934197679</v>
       </c>
       <c r="D23">
-        <v>6.64902062509962</v>
+        <v>9.168131248907754</v>
       </c>
       <c r="E23">
-        <v>8.853119862799726</v>
+        <v>5.074143866800659</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.792653589842034</v>
+        <v>2.104498401817184</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.47656250377861</v>
+        <v>21.18877302927642</v>
       </c>
       <c r="L23">
-        <v>10.21967982321828</v>
+        <v>6.667383030050261</v>
       </c>
       <c r="M23">
-        <v>19.3242029215764</v>
+        <v>15.27332678577995</v>
       </c>
       <c r="N23">
-        <v>29.55693104788145</v>
+        <v>25.11130364379704</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.05957368485607</v>
+        <v>24.12374968021997</v>
       </c>
       <c r="C24">
-        <v>6.970695288515977</v>
+        <v>11.22083125685253</v>
       </c>
       <c r="D24">
-        <v>6.45799901250062</v>
+        <v>8.405309610320549</v>
       </c>
       <c r="E24">
-        <v>8.869022609013257</v>
+        <v>5.085093631025638</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.798811195588427</v>
+        <v>2.125879978286869</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.2220183740775</v>
+        <v>19.76091140469095</v>
       </c>
       <c r="L24">
-        <v>10.22952880729802</v>
+        <v>6.512956332931892</v>
       </c>
       <c r="M24">
-        <v>19.26897227740075</v>
+        <v>14.55757278734662</v>
       </c>
       <c r="N24">
-        <v>29.38971499837118</v>
+        <v>24.48732186917747</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.71560802608567</v>
+        <v>22.1749580694836</v>
       </c>
       <c r="C25">
-        <v>6.572505401402981</v>
+        <v>10.0361506439301</v>
       </c>
       <c r="D25">
-        <v>6.252747682948763</v>
+        <v>7.536152618267404</v>
       </c>
       <c r="E25">
-        <v>8.888117941747216</v>
+        <v>5.102088060602921</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.805923161909333</v>
+        <v>2.14905733367098</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.96319357976238</v>
+        <v>18.19933984200323</v>
       </c>
       <c r="L25">
-        <v>10.24567935273459</v>
+        <v>6.361596068905678</v>
       </c>
       <c r="M25">
-        <v>19.22328288217824</v>
+        <v>13.80596194685256</v>
       </c>
       <c r="N25">
-        <v>29.21212062681202</v>
+        <v>23.83386509902428</v>
       </c>
       <c r="O25">
         <v>0</v>
